--- a/センサ生産.xlsx
+++ b/センサ生産.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.24.27\disk1\New共通\生産部\品質保証\05_生産\02_生産管理\02_工程管理\測定値記録自動化\製膜秤量\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mochida.Tetsuya\source\repos\hamas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6216688E-8721-4F0A-A17D-67C25288B815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3055E590-C4F4-46EA-9066-34A4D4744CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="秤量" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="170">
   <si>
     <t>＃</t>
     <phoneticPr fontId="1"/>
@@ -1001,13 +1001,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>手入力（またはOCR)</t>
-    <rPh sb="0" eb="3">
-      <t>テニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バーコード（試薬瓶から）</t>
     <rPh sb="6" eb="9">
       <t>シヤクビン</t>
@@ -1572,6 +1565,62 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手入力（または「製膜シート」OCR)</t>
+    <rPh sb="0" eb="3">
+      <t>テニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイマク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塩化ビニルポリマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関東化学</t>
+    <rPh sb="0" eb="2">
+      <t>カントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PR642</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　薬品名を統一する</t>
+    </r>
+    <rPh sb="2" eb="5">
+      <t>ヤクヒンメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウイツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1580,7 +1629,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1601,6 +1650,12 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1652,7 +1707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1672,6 +1727,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1954,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2081,7 +2139,7 @@
         <v>40</v>
       </c>
       <c r="Q12" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
@@ -2089,7 +2147,7 @@
         <v>41</v>
       </c>
       <c r="Q13" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
@@ -2097,7 +2155,7 @@
         <v>4</v>
       </c>
       <c r="Q14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
@@ -2105,7 +2163,7 @@
         <v>78</v>
       </c>
       <c r="Q15" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2119,7 +2177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895D5784-8201-4AF5-A258-4D428ED6C41A}">
   <dimension ref="A1:XFA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
@@ -3448,7 +3506,7 @@
     </row>
     <row r="5" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.45">
       <c r="AO5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:1023 1037:2045 2059:3067 3081:4089 4103:5111 5125:6133 6147:7155 7169:8191 8205:9213 9227:10235 10249:11257 11271:12279 12293:13301 13315:14323 14337:15359 15373:16381" x14ac:dyDescent="0.45">
@@ -3572,7 +3630,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="K4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -3789,22 +3847,22 @@
         <v>73</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>78</v>
@@ -3815,7 +3873,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
@@ -3834,7 +3892,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N9" t="s">
         <v>116</v>
@@ -3842,7 +3900,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N10" t="s">
         <v>116</v>
@@ -3850,7 +3908,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N11" t="s">
         <v>116</v>
@@ -3926,67 +3984,67 @@
         <v>97</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>78</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="AC3" s="4" t="s">
         <v>80</v>
@@ -3997,57 +4055,57 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE7" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AE14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="31:35" x14ac:dyDescent="0.45">
@@ -4061,12 +4119,12 @@
     </row>
     <row r="19" spans="31:35" x14ac:dyDescent="0.45">
       <c r="AE19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="31:35" x14ac:dyDescent="0.45">
       <c r="AF20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4077,10 +4135,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C044B17-1086-4378-BDA1-A4B2D7FBE1FE}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4212,22 +4270,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>10000001</v>
+        <v>90258237</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1">
-        <v>312</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
@@ -4235,22 +4293,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>10000002</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>10000001</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="1">
-        <v>333</v>
+        <v>312</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -4258,22 +4319,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>10000003</v>
+        <v>10000002</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="1">
-        <v>301</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -4281,21 +4342,44 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>10000004</v>
+        <v>10000003</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10000004</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1">
         <v>345</v>
       </c>
     </row>
@@ -4321,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -4333,10 +4417,10 @@
         <v>45</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
